--- a/实验程序/3.7 固体导热系数.xlsx
+++ b/实验程序/3.7 固体导热系数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programs\实验程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E59711-BC18-412F-A167-735107B5B339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D229F7-EF5C-4DFC-B833-27F085D1A707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -332,8 +332,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="2"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -346,7 +346,7 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -1508,16 +1508,16 @@
   <dimension ref="B2:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.9140625"/>
+    <col min="18" max="18" width="12.88671875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>1</v>
@@ -1536,7 +1536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1659,7 +1659,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -1713,7 +1713,7 @@
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1736,7 +1736,7 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -1747,7 +1747,7 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1927,7 +1927,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1943,7 +1943,7 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q21" s="4" t="s">
         <v>13</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q22" s="4" t="s">
         <v>14</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>3.1415926535000001</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q23" s="4" t="s">
         <v>15</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0.22005285843548014</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q24" s="6" t="s">
         <v>16</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>7.8740099906802877E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q25" s="7" t="s">
         <v>18</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0.43220365955568923</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q26" s="7" t="s">
         <v>17</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>2.4494965469119105E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q27" s="7" t="s">
         <v>19</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>2.3452079509790232E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q28" s="7" t="s">
         <v>21</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>3.2883138935606342E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q29" s="7" t="s">
         <v>22</v>
       </c>
